--- a/education/EducationPlan_first.xlsx
+++ b/education/EducationPlan_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>天津股轩资产管理有限公司</t>
   </si>
@@ -99,6 +99,156 @@
     <t>手机端页面布局、功能实现</t>
   </si>
   <si>
+    <t>微信公众号</t>
+  </si>
+  <si>
+    <r>
+      <t>1.微信公众号托管（含自动回复，关注推送，智能分词回复，自定义菜单，微信用户登记，信息推送）；
+2.微信关注会员管理，</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理功能；
+3.在线支付（</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付宝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信支付）功能；
+4.资讯发布管理功能，商品（视频）管理功能；
+5.商品（视频）订单管理</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，支付接口设置功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信支付申请通过后款项会直接打入到微信账户中 由微信支付后台提现到对公账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；
+6.微信在线客服功能（多客服，客服号可绑定微信帐号使用微信回复）；
+7.未购买的用户不能观看视频功能（使用地址加密）；
+8.访问统计；
+9.入口：扫描微信二维码登入；
+10.在线购买视频并在线观看视频功能，兼容安卓和IOS；
+11.在线留言及回复功能；
+12.支持MP4格式的HTTP空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用第三方视频服务商视频空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；
+13.申请微信支付</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或支付宝支付接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；
+14.视频使用MP4格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频成片可以是MP4格式播放过程中会根据用户手机的适配度来选择播放格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
     <t>功能程序</t>
   </si>
   <si>
@@ -180,12 +330,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +385,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -249,6 +405,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,15 +433,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,31 +532,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,58 +547,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <strike/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -406,24 +581,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,31 +701,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,139 +755,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +808,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -648,11 +834,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,8 +876,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,41 +905,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,137 +925,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,13 +1104,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,10 +1131,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,10 +1456,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1284,7 +1468,7 @@
     <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.6666666666667" style="1" customWidth="1"/>
     <col min="4" max="6" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4416666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1462,274 +1646,293 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="8">
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <v>20000</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="17">
         <f>D14*E14</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="13" t="s">
+    <row r="15" ht="299.25" spans="1:6">
+      <c r="A15" s="8"/>
+      <c r="B15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="17">
+        <v>50000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
+        <f>D15*E15</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="14">
-        <f>SUM(F14:F14)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:6">
-      <c r="A16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="14">
+        <f>SUM(F14:F15)</f>
+        <v>70000</v>
+      </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:6">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" ht="85.5" spans="1:6">
-      <c r="A18" s="8">
+      <c r="A17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:6">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" ht="85.5" spans="1:6">
+      <c r="A19" s="8">
         <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="16">
-        <v>20000</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16">
-        <f>D18*E18</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="19" ht="42.75" spans="1:6">
-      <c r="A19" s="8">
-        <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="17">
         <v>20000</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="16">
-        <f>D19*E19</f>
+      <c r="F19" s="17">
+        <f t="shared" ref="F19:F27" si="0">D19*E19</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="20" ht="42.75" spans="1:7">
+    <row r="20" ht="42.75" spans="1:6">
       <c r="A20" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="17">
         <v>20000</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="16">
-        <f>D20*E20</f>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" ht="57" spans="1:6">
+    </row>
+    <row r="21" ht="42.75" spans="1:7">
       <c r="A21" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="17">
         <v>20000</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="16">
-        <f>D21*E21</f>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="22" ht="42.75" spans="1:6">
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" ht="57" spans="1:6">
       <c r="A22" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="17">
         <v>20000</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="16">
-        <f>D22*E22</f>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
+    <row r="23" ht="42.75" spans="1:6">
       <c r="A23" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="16">
-        <v>10000</v>
+      <c r="D23" s="17">
+        <v>20000</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="16">
-        <f>D23*E23</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="16">
-        <v>20000</v>
+      <c r="D24" s="17">
+        <v>10000</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="16">
-        <f>D24*E24</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="28.5" spans="1:6">
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:6">
       <c r="A25" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="17">
         <v>20000</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="16">
-        <f>D25*E25</f>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="28.5" spans="1:6">
+    <row r="26" ht="28.5" spans="1:6">
       <c r="A26" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16">
-        <v>10000</v>
+      <c r="D26" s="17">
+        <v>20000</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="16">
-        <f>D26*E26</f>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" spans="1:6">
+      <c r="A27" s="8">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="17">
         <v>10000</v>
       </c>
-    </row>
-    <row r="27" ht="23" customHeight="1" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" ht="22.95" customHeight="1" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="14">
-        <f>SUM(F18:F25)</f>
+      <c r="F28" s="14">
+        <f>SUM(F19:F26)</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="28" ht="30" customHeight="1" spans="1:6">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="23">
-        <f>F11+F15+F27</f>
-        <v>200000</v>
+    <row r="29" ht="30" customHeight="1" spans="1:6">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="26">
+        <f>F11+F16+F28</f>
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1944,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/education/EducationPlan_first.xlsx
+++ b/education/EducationPlan_first.xlsx
@@ -103,6 +103,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.微信公众号托管（含自动回复，关注推送，智能分词回复，自定义菜单，微信用户登记，信息推送）；
 2.微信关注会员管理，</t>
     </r>
@@ -329,13 +335,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,12 +391,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -404,9 +404,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,8 +477,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,24 +517,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,51 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -516,37 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="9"/>
       <name val="微软雅黑"/>
@@ -599,13 +599,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,169 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,52 +808,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,8 +841,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,17 +882,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,10 +913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,137 +925,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,26 +1104,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,10 +1122,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,8 +1449,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1646,44 +1637,46 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>20000</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <f>D14*E14</f>
         <v>20000</v>
       </c>
     </row>
     <row r="15" ht="299.25" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="17">
-        <v>50000</v>
+      <c r="D15" s="16">
+        <v>30000</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <f>D15*E15</f>
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:6">
@@ -1696,7 +1689,7 @@
       </c>
       <c r="F16" s="14">
         <f>SUM(F14:F15)</f>
-        <v>70000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:6">
@@ -1710,14 +1703,14 @@
       <c r="F17" s="15"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:6">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" ht="85.5" spans="1:6">
       <c r="A19" s="8">
@@ -1726,16 +1719,16 @@
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>20000</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <f t="shared" ref="F19:F27" si="0">D19*E19</f>
         <v>20000</v>
       </c>
@@ -1747,16 +1740,16 @@
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>20000</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -1768,20 +1761,20 @@
       <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>20000</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" ht="57" spans="1:6">
       <c r="A22" s="8">
@@ -1790,16 +1783,16 @@
       <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>20000</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -1811,16 +1804,16 @@
       <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>20000</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -1832,16 +1825,16 @@
       <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>10000</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -1853,16 +1846,16 @@
       <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>20000</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -1874,16 +1867,16 @@
       <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>20000</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -1895,16 +1888,16 @@
       <c r="B27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <v>10000</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -1923,16 +1916,16 @@
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="23">
         <f>F11+F16+F28</f>
-        <v>250000</v>
+        <v>230000</v>
       </c>
     </row>
   </sheetData>
